--- a/data/trans_orig/iP30A7_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A7_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1737CEB-11B5-4D27-9A89-F977680B3800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E24746-75DD-457C-915A-DA6BD5A0D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D67B2D9D-57B9-463F-8827-93E9FCC5E9C7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D98EBA00-C00A-41E8-85ED-944281A064FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>11,4%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>12,85%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>88,6%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>92,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,120 +357,6 @@
   </si>
   <si>
     <t>93,37%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
   </si>
   <si>
     <t>12,19%</t>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12C296D-E0EE-4F1E-98D2-70323737FB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAA294-C6A6-4F33-BD25-D10115BEC274}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -920,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>27698</v>
+        <v>2379</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>12954</v>
+        <v>3038</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>40653</v>
+        <v>5417</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +971,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>215215</v>
+        <v>9018</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +986,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>174963</v>
+        <v>12961</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>539</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>390177</v>
+        <v>21978</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1022,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1037,10 +1037,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1052,10 +1052,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>17243</v>
+        <v>27698</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1245,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>13905</v>
+        <v>12954</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1260,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N10" s="7">
-        <v>31148</v>
+        <v>40653</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1281,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="D11" s="7">
-        <v>154213</v>
+        <v>215215</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1296,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>154585</v>
+        <v>174963</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1311,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>424</v>
+        <v>539</v>
       </c>
       <c r="N11" s="7">
-        <v>308799</v>
+        <v>390177</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1332,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1347,10 +1347,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1362,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>2379</v>
+        <v>26178</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1400,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>3038</v>
+        <v>30264</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1415,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>5417</v>
+        <v>56442</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1436,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7">
-        <v>9018</v>
+        <v>144941</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1451,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="I14" s="7">
-        <v>12961</v>
+        <v>136304</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1466,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>37</v>
+        <v>384</v>
       </c>
       <c r="N14" s="7">
-        <v>21978</v>
+        <v>281245</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1487,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1502,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1517,10 +1517,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>26178</v>
+        <v>17243</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1555,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>30264</v>
+        <v>13905</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1570,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>56442</v>
+        <v>31148</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1591,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D17" s="7">
-        <v>144941</v>
+        <v>154213</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1606,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="I17" s="7">
-        <v>136304</v>
+        <v>154585</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1621,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="N17" s="7">
-        <v>281245</v>
+        <v>308799</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1642,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1672,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30A7_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A7_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E24746-75DD-457C-915A-DA6BD5A0D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B83322-9730-4D78-9D96-8C6874A09EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D98EBA00-C00A-41E8-85ED-944281A064FA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5402B5AB-3A20-46AE-AE4D-FFAB0A182A81}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Menores según si toman legumbres más de una vez a la semana en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,319 +128,286 @@
     <t>37,58%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,39 +514,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -601,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -712,13 +709,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -727,6 +717,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -791,19 +788,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAA294-C6A6-4F33-BD25-D10115BEC274}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CDD744-234D-487A-9EA4-95888CCB5C01}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -920,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>2379</v>
+        <v>9018</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>3038</v>
+        <v>12961</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +967,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>5417</v>
+        <v>21978</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +988,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>9018</v>
+        <v>2379</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +1003,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>12961</v>
+        <v>3038</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1018,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>21978</v>
+        <v>5417</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7">
-        <v>12996</v>
+        <v>99452</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1090,10 +1107,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="I7" s="7">
-        <v>6777</v>
+        <v>94858</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1105,10 +1122,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="N7" s="7">
-        <v>19773</v>
+        <v>194310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1126,10 +1143,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>99452</v>
+        <v>12996</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1141,10 +1158,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>94858</v>
+        <v>6777</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1156,10 +1173,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>194310</v>
+        <v>19773</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1230,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="D10" s="7">
-        <v>27698</v>
+        <v>215215</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1262,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="I10" s="7">
-        <v>12954</v>
+        <v>174963</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1277,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>54</v>
+        <v>539</v>
       </c>
       <c r="N10" s="7">
-        <v>40653</v>
+        <v>390177</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1298,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>215215</v>
+        <v>27698</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1313,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>174963</v>
+        <v>12954</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1328,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="N11" s="7">
-        <v>390177</v>
+        <v>40653</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1385,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7">
-        <v>26178</v>
+        <v>144941</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="I13" s="7">
-        <v>30264</v>
+        <v>136304</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1432,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>384</v>
       </c>
       <c r="N13" s="7">
-        <v>56442</v>
+        <v>281245</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1453,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>144941</v>
+        <v>26178</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1468,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>136304</v>
+        <v>30264</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1483,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>384</v>
+        <v>59</v>
       </c>
       <c r="N14" s="7">
-        <v>281245</v>
+        <v>56442</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1540,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7">
-        <v>17243</v>
+        <v>154213</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1572,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="I16" s="7">
-        <v>13905</v>
+        <v>154585</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1587,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>43</v>
+        <v>424</v>
       </c>
       <c r="N16" s="7">
-        <v>31148</v>
+        <v>308799</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1608,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>154213</v>
+        <v>17243</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1623,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>154585</v>
+        <v>13905</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1638,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>424</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>308799</v>
+        <v>31148</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1695,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>842</v>
       </c>
       <c r="D19" s="7">
-        <v>86494</v>
+        <v>622839</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1710,10 +1727,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>85</v>
+        <v>830</v>
       </c>
       <c r="I19" s="7">
-        <v>66939</v>
+        <v>573670</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -1722,22 +1739,22 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1196509</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="7">
-        <v>183</v>
-      </c>
-      <c r="N19" s="7">
-        <v>153433</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,49 +1763,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>842</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7">
-        <v>622840</v>
+        <v>86494</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>85</v>
+      </c>
+      <c r="I20" s="7">
+        <v>66939</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="7">
-        <v>830</v>
-      </c>
-      <c r="I20" s="7">
-        <v>573670</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>183</v>
+      </c>
+      <c r="N20" s="7">
+        <v>153433</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M20" s="7">
-        <v>1672</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1196509</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,7 +1817,7 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1840,6 +1857,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
